--- a/PaperNeural/Results/ResultsMar2017-t-SNE_MI_3000_LR_400_PE_5.xlsx
+++ b/PaperNeural/Results/ResultsMar2017-t-SNE_MI_3000_LR_400_PE_5.xlsx
@@ -7111,20 +7111,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="40" t="n">
         <v>0.6</v>
-      </c>
-      <c r="D6" s="40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="40" t="n">
-        <v>0.2</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>36.84210526315789</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -7144,7 +7144,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>0.5847953216374269</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -7191,13 +7191,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -7212,10 +7212,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -7291,13 +7291,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
@@ -7335,10 +7335,10 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -7369,10 +7369,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>0.6666666666666666</v>
@@ -7465,10 +7465,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -7478,7 +7478,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>1</v>
@@ -7546,10 +7546,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -7639,13 +7639,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
@@ -7658,20 +7658,20 @@
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>1.0</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>1.7543859649122806</v>
+        <v>19.298245614035086</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7680,13 +7680,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D25" s="40" t="n">
         <v>0.875</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -7697,13 +7697,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.9861111111111112</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.013888888888888888</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -7717,13 +7717,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D26" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="40" t="n">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="D26" s="40" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E26" s="40" t="n">
-        <v>0.5</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -7734,13 +7734,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -7905,20 +7905,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>57.89473684210527</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -7928,17 +7928,17 @@
         <v>0.8222222222222222</v>
       </c>
       <c r="K6" s="40" t="n">
-        <v>0.17777777777777778</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M6" s="3" t="e">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>24.561403508771928</v>
+        <v>15.204678362573098</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7947,13 +7947,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -7965,13 +7965,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -7985,13 +7985,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>1.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -8003,13 +8003,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -8095,16 +8095,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="K12" s="40" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L12" s="40" t="n">
         <v>0.022222222222222223</v>
@@ -8114,7 +8114,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>12.865497076023392</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8123,13 +8123,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -8140,10 +8140,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="K13" s="40" t="n">
-        <v>0.875</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L13" s="40" t="n">
         <v>0.06944444444444445</v>
@@ -8160,13 +8160,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E14" s="40" t="n">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="D14" s="40" t="n">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E14" s="40" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -8177,13 +8177,13 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -8256,39 +8256,39 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D18" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>52.63157894736842</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="L18" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.0</v>
       </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>22.22222222222222</v>
+        <v>14.035087719298245</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8297,10 +8297,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="40" t="n">
         <v>0.625</v>
-      </c>
-      <c r="D19" s="40" t="n">
-        <v>0.25</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>0.125</v>
@@ -8317,10 +8317,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -8334,10 +8334,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="40" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D20" s="40" t="n">
-        <v>0.0</v>
       </c>
       <c r="E20" s="40" t="n">
         <v>0.5</v>
@@ -8351,13 +8351,13 @@
         <v>3</v>
       </c>
       <c r="J20" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -8430,29 +8430,29 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>84.21052631578947</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="L24" s="40" t="n">
         <v>0.0</v>
@@ -8462,7 +8462,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>19.883040935672515</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8474,10 +8474,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.25</v>
+        <v>0.875</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -8488,13 +8488,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.8472222222222222</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -8511,10 +8511,10 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -8525,13 +8525,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.12962962962962962</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -8699,17 +8699,17 @@
         <v>0.8</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>15.789473684210526</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -8741,10 +8741,10 @@
         <v>0.125</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -8776,13 +8776,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D8" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -8873,20 +8873,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>10.526315789473683</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
@@ -8914,13 +8914,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -8954,10 +8954,10 @@
         <v>0.0</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>1.0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -9050,26 +9050,26 @@
         <v>0.6</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.9777777777777777</v>
+        <v>1.0</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.022222222222222223</v>
+        <v>0.0</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -9079,7 +9079,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>1.1695906432748537</v>
+        <v>1.7543859649122806</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9091,10 +9091,10 @@
         <v>0.0</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
@@ -9105,10 +9105,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.013888888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.9861111111111112</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L19" s="40" t="n">
         <v>0.0</v>
@@ -9221,10 +9221,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>0.2</v>
@@ -9240,20 +9240,20 @@
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.8222222222222222</v>
+        <v>1.0</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>11.11111111111111</v>
+        <v>2.923976608187134</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9265,10 +9265,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -9279,13 +9279,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.9305555555555556</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -9299,10 +9299,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>0.5</v>
@@ -9316,13 +9316,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -9487,40 +9487,40 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>36.84210526315789</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="40" t="n">
-        <v>0.9333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="K6" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="L6" s="40" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="M6" s="3" t="e">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>4.093567251461988</v>
+        <v>2.3391812865497075</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9529,13 +9529,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -9570,10 +9570,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -9585,10 +9585,10 @@
         <v>3</v>
       </c>
       <c r="J8" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L8" s="40" t="n">
         <v>0.9444444444444444</v>
@@ -9667,17 +9667,17 @@
         <v>0.6</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
@@ -9696,7 +9696,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>0.5847953216374269</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9705,13 +9705,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
         <v>0.75</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -9745,10 +9745,10 @@
         <v>0.0</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -9762,10 +9762,10 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.9814814814814815</v>
+        <v>1.0</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -9838,10 +9838,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -9851,7 +9851,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
@@ -9870,7 +9870,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>1.1695906432748537</v>
+        <v>0.5847953216374269</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9879,10 +9879,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>0.0</v>
@@ -9896,10 +9896,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.9722222222222222</v>
+        <v>1.0</v>
       </c>
       <c r="L19" s="40" t="n">
         <v>0.0</v>
@@ -9919,10 +9919,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -9936,10 +9936,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -10012,39 +10012,39 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>57.89473684210527</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="K24" s="40" t="n">
         <v>0.044444444444444446</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>7.602339181286549</v>
+        <v>8.187134502923977</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10056,10 +10056,10 @@
         <v>0.125</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -10073,10 +10073,10 @@
         <v>0.013888888888888888</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -10090,13 +10090,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -10107,10 +10107,10 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L26" s="40" t="n">
         <v>0.8888888888888888</v>
@@ -10274,10 +10274,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>0.2</v>
@@ -10316,10 +10316,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E7" s="40" t="n">
         <v>0.125</v>
@@ -10354,13 +10354,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -10451,13 +10451,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
@@ -10492,13 +10492,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -10625,10 +10625,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -10638,16 +10638,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -10657,7 +10657,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>0.0</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10683,10 +10683,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.0</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="L19" s="40" t="n">
         <v>0.0</v>
@@ -10799,13 +10799,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
@@ -10818,20 +10818,20 @@
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.9111111111111111</v>
+        <v>1.0</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.0</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>12.280701754385964</v>
+        <v>2.923976608187134</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10843,10 +10843,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -10860,10 +10860,10 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -10877,13 +10877,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -10897,10 +10897,10 @@
         <v>0.037037037037037035</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.7962962962962963</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -11065,40 +11065,40 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="40" t="n">
         <v>0.4</v>
-      </c>
-      <c r="D6" s="40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="40" t="n">
-        <v>0.2</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="40" t="n">
-        <v>0.8222222222222222</v>
+        <v>1.0</v>
       </c>
       <c r="K6" s="40" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="L6" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="M6" s="3" t="e">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>8.187134502923977</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11110,10 +11110,10 @@
         <v>0.125</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -11125,10 +11125,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="40" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.9722222222222222</v>
+        <v>1.0</v>
       </c>
       <c r="L7" s="40" t="n">
         <v>0.0</v>
@@ -11148,10 +11148,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -11163,13 +11163,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -11242,20 +11242,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>47.368421052631575</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
@@ -11283,10 +11283,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="40" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D13" s="40" t="n">
-        <v>0.25</v>
       </c>
       <c r="E13" s="40" t="n">
         <v>0.25</v>
@@ -11320,10 +11320,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="40" t="n">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="D14" s="40" t="n">
-        <v>0.0</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>0.8333333333333334</v>
@@ -11416,10 +11416,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -11429,16 +11429,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>47.368421052631575</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I18" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -11460,10 +11460,10 @@
         <v>0.0</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
@@ -11497,10 +11497,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -11514,10 +11514,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.0</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.9814814814814815</v>
+        <v>1.0</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -11590,39 +11590,39 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D24" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.9777777777777777</v>
+        <v>1.0</v>
       </c>
       <c r="K24" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.022222222222222223</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>5.263157894736842</v>
+        <v>3.508771929824561</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11631,13 +11631,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -11648,10 +11648,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.013888888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.9861111111111112</v>
+        <v>1.0</v>
       </c>
       <c r="L25" s="40" t="n">
         <v>0.0</v>
@@ -11668,13 +11668,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -11685,13 +11685,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -11863,10 +11863,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>0.0</v>
@@ -11876,7 +11876,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="67" t="n">
-        <v>36.84210526315789</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
@@ -11906,13 +11906,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D7" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="40" t="n">
         <v>0.375</v>
-      </c>
-      <c r="E7" s="40" t="n">
-        <v>0.625</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -11945,13 +11945,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -12042,20 +12042,20 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
@@ -12086,10 +12086,10 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -12120,10 +12120,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>0.6666666666666666</v>
@@ -12216,20 +12216,20 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="40" t="n">
         <v>0.4</v>
       </c>
-      <c r="D18" s="40" t="n">
-        <v>0.6</v>
-      </c>
       <c r="E18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>36.84210526315789</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I18" s="41" t="s">
         <v>1</v>
@@ -12248,7 +12248,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>0.0</v>
+        <v>0.5847953216374269</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -12297,10 +12297,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -12314,10 +12314,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>1.0</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -12390,10 +12390,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>0.0</v>
@@ -12403,26 +12403,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.022222222222222223</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>2.923976608187134</v>
+        <v>15.789473684210526</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -12431,13 +12431,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="D25" s="40" t="n">
         <v>0.75</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -12448,13 +12448,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.9861111111111112</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.013888888888888888</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -12468,13 +12468,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -12485,13 +12485,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
